--- a/doc/50_単体テスト(UT)/02_エビデンス/CSU_USER02_会員登録画面_エビデンス/打鍵後のUCL/【COL-PRO】単体テスト仕様書(UCL)_会員登録画面_表紙.xlsx
+++ b/doc/50_単体テスト(UT)/02_エビデンス/CSU_USER02_会員登録画面_エビデンス/打鍵後のUCL/【COL-PRO】単体テスト仕様書(UCL)_会員登録画面_表紙.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jenic\Downloads\certificate-online-dev\doc\50_単体テスト(UT)\02_エビデンス\CSU_USER02_会員登録画面_エビデンス\打鍵後のUCL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/252ffebb5be9cf02/ドキュメント/eb-kenshu/certificate-online/doc/50_単体テスト(UT)/02_エビデンス/CSU_USER02_会員登録画面_エビデンス/打鍵後のUCL/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3A8385-7F6F-4C8B-A348-5B0FB3E8963D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
@@ -910,7 +910,7 @@
   <dimension ref="B2:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
